--- a/biology/Zoologie/Heosemys_spinosa/Heosemys_spinosa.xlsx
+++ b/biology/Zoologie/Heosemys_spinosa/Heosemys_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heosemys spinosa ou tortue épineuse est une espèce de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heosemys spinosa ou tortue épineuse est une espèce de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Heosemys spinosa est une tortue terrestre qui vit à proximité des petits cours d'eau dans la forêt tropicale et préfère les endroits frais, ombragés et humides.
-Cette espèce se rencontre[1] :
+Cette espèce se rencontre :
 en Thaïlande ;
 en Malaisie ;
 en Birmanie ;
@@ -549,13 +563,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tortue épineuse mesure en moyenne 15 cm de long et atteint parfois 23 cm. Sa tête est grisâtre ou marron.
-Elle est surtout active à l'aube et au crépuscule. Elle se cache souvent sous les feuilles.
-Carapace
-Sa dossière ovoïde se caractérise chez les juvéniles par des écailles marginales exagérément dentelées formant des "épines" protectrices d'où son nom commun d'Héosémyde épineuse ou tortue épineuse. Ces épines tendent à s'émousser à l'âge adulte[2].
-</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La tortue épineuse mesure en moyenne 15 cm de long et atteint parfois 23 cm. Sa tête est grisâtre ou marron.
+Elle est surtout active à l'aube et au crépuscule. Elle se cache souvent sous les feuilles.</t>
         </is>
       </c>
     </row>
@@ -580,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alimentation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle est exclusivement végétarienne dans la nature.
+          <t>Carapace</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa dossière ovoïde se caractérise chez les juvéniles par des écailles marginales exagérément dentelées formant des "épines" protectrices d'où son nom commun d'Héosémyde épineuse ou tortue épineuse. Ces épines tendent à s'émousser à l'âge adulte.
 </t>
         </is>
       </c>
@@ -611,12 +630,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est exclusivement végétarienne dans la nature.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heosemys_spinosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heosemys_spinosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pond 1 ou 2 gros œufs, parfois 3. Son plastron arrière flexible facilite le passage de ses gros œufs.  L'incubation dure environ 96 jours. Les bébés tortues mesurent à la naissance de 5,5 à 6 cm et pèsent environ 34 g[3]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pond 1 ou 2 gros œufs, parfois 3. Son plastron arrière flexible facilite le passage de ses gros œufs.  L'incubation dure environ 96 jours. Les bébés tortues mesurent à la naissance de 5,5 à 6 cm et pèsent environ 34 g. 
 </t>
         </is>
       </c>
